--- a/成交汇总.xlsx
+++ b/成交汇总.xlsx
@@ -1,51 +1,140 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\韩博\Desktop\ph\0106成交汇总\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67B6A58D-271D-4C4B-B007-33666F825776}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="2018年12月25日" sheetId="2" r:id="rId2"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>COUPONRATE2</t>
+  </si>
+  <si>
+    <t>SEC_NAME</t>
+  </si>
+  <si>
+    <t>LATESTISSURERCREDITRATING</t>
+  </si>
+  <si>
+    <t>PTMYEAR</t>
+  </si>
+  <si>
+    <t>CALC_MDURATION</t>
+  </si>
+  <si>
+    <t>EOBSPECIALINSTRUTIONS</t>
+  </si>
+  <si>
+    <t>NATURE1</t>
+  </si>
+  <si>
+    <t>WINDL1TYPE</t>
+  </si>
+  <si>
+    <t>IPO_DATE</t>
+  </si>
+  <si>
+    <t>yield_cnbd_lastday</t>
+  </si>
+  <si>
+    <t>yield_cnbd</t>
+  </si>
+  <si>
+    <t>011801349.IB</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>18晋煤SCP006</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>地方国有企业</t>
+  </si>
+  <si>
+    <t>短期融资券</t>
+  </si>
+  <si>
+    <t>011802477.IB</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>18融和融资SCP011</t>
+  </si>
+  <si>
+    <t>中央国有企业</t>
+  </si>
+  <si>
+    <t>011802149.IB</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>18中建材SCP019</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -53,26 +142,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -338,17 +430,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.263013698630137</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>43305</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.0934</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.1121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.263013698630137</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>43305</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.0934</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.1121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.263013698630137</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>43305</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.0934</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.1121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.410958904109589</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>43451</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.1269</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.1797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5315068493150685</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>43413</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.8004</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.8408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>